--- a/matlabfilesuk/ch8Plots/grafuniv2serie.xlsx
+++ b/matlabfilesuk/ch8Plots/grafuniv2serie.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\books\DataScienceWithMatlab\matlabMfilesUK\capPlots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\books\DataScienceWithMatlab\matlabMfilesUK\ch8Plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833C0095-8791-43F1-B79B-A23D77CFDEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354AB403-33D7-464F-961F-A15A6D8AAFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="dati" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>

--- a/matlabfilesuk/ch8Plots/grafuniv2serie.xlsx
+++ b/matlabfilesuk/ch8Plots/grafuniv2serie.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\books\DataScienceWithMatlab\matlabMfilesUK\ch8Plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354AB403-33D7-464F-961F-A15A6D8AAFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1EFAF7-E0A2-4E92-8AC8-58E677F94804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="dati" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="Group1">'[1]Box &amp; Whisker'!$B$2:$B$23</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Feb</t>
   </si>
@@ -669,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -821,4 +822,162 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3BD576-4216-40F8-B2F9-4E80A4C943D9}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>6897</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>7732</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4500</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3122</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9832</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>893</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>734</v>
+      </c>
+      <c r="C7" s="3">
+        <v>16453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>891</v>
+      </c>
+      <c r="C8" s="3">
+        <v>15874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>559</v>
+      </c>
+      <c r="C9" s="3">
+        <v>9833</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5433</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
+        <v>8734</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11573</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <v>18630</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5433</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>